--- a/GS05MOAS-GL486/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
+++ b/GS05MOAS-GL486/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="4740" yWindow="3900" windowWidth="25540" windowHeight="11400" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,6 +192,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,13 +277,13 @@
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,7 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,28 +713,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="35.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
@@ -795,17 +804,22 @@
         <v>-89.357583333333338</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -813,23 +827,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="1019" width="8.7109375"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -872,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -895,7 +908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -911,14 +924,14 @@
       <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.1299999999999999</v>
+      <c r="F4" s="14">
+        <v>1.0960000000000001</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -941,14 +954,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="5" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -966,14 +979,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="5" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -991,14 +1004,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="5" customFormat="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1025,6 +1038,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>